--- a/nedlastede data/buss/PassasjererLinje_2023_5.xlsx
+++ b/nedlastede data/buss/PassasjererLinje_2023_5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtfk.sharepoint.com/sites/SMM-MarkedogUtvikling/Delte dokumenter/Marked, Teknologi og Utvikling/Statistikk/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arbeidsprosjekter\Github - VTpluss\Bypakke Grenland\bypakke_grenland\nedlastede data\buss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA362226-9DC4-409D-B38E-7C39C6C6FB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CF79C1-2D68-4EB1-977D-53E950B8032E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="25575" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="61344" yWindow="-528" windowWidth="14088" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linje (AntallKatLinje.mdl-Dive " sheetId="1" r:id="rId1"/>
@@ -524,18 +524,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E599"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,7 +554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>8001</v>
       </c>
@@ -569,7 +571,7 @@
         <v>137343</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>8001</v>
       </c>
@@ -586,7 +588,7 @@
         <v>124797</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>8001</v>
       </c>
@@ -603,7 +605,7 @@
         <v>149776</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>8001</v>
       </c>
@@ -620,7 +622,7 @@
         <v>113747</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>8001</v>
       </c>
@@ -637,7 +639,7 @@
         <v>125749</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>8002</v>
       </c>
@@ -654,7 +656,7 @@
         <v>109327</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>8002</v>
       </c>
@@ -671,7 +673,7 @@
         <v>96082</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8002</v>
       </c>
@@ -688,7 +690,7 @@
         <v>120242</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>8002</v>
       </c>
@@ -705,7 +707,7 @@
         <v>84426</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>8002</v>
       </c>
@@ -722,7 +724,7 @@
         <v>91227</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>8003</v>
       </c>
@@ -739,7 +741,7 @@
         <v>107601</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>8003</v>
       </c>
@@ -756,7 +758,7 @@
         <v>96734</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>8003</v>
       </c>
@@ -773,7 +775,7 @@
         <v>116391</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>8003</v>
       </c>
@@ -790,7 +792,7 @@
         <v>82792</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>8003</v>
       </c>
@@ -807,7 +809,7 @@
         <v>91394</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>8004</v>
       </c>
@@ -824,7 +826,7 @@
         <v>19319</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>8004</v>
       </c>
@@ -841,7 +843,7 @@
         <v>17582</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>8004</v>
       </c>
@@ -858,7 +860,7 @@
         <v>20907</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>8004</v>
       </c>
@@ -875,7 +877,7 @@
         <v>13762</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>8004</v>
       </c>
@@ -892,7 +894,7 @@
         <v>14715</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>8005</v>
       </c>
@@ -909,7 +911,7 @@
         <v>16728</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>8005</v>
       </c>
@@ -926,7 +928,7 @@
         <v>14552</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>8005</v>
       </c>
@@ -943,7 +945,7 @@
         <v>18136</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>8005</v>
       </c>
@@ -960,7 +962,7 @@
         <v>12523</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>8005</v>
       </c>
@@ -977,7 +979,7 @@
         <v>13240</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>8006</v>
       </c>
@@ -994,7 +996,7 @@
         <v>17769</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>8006</v>
       </c>
@@ -1011,7 +1013,7 @@
         <v>14649</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>8006</v>
       </c>
@@ -1028,7 +1030,7 @@
         <v>18879</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>8006</v>
       </c>
@@ -1045,7 +1047,7 @@
         <v>11784</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>8006</v>
       </c>
@@ -1062,7 +1064,7 @@
         <v>13890</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>8007</v>
       </c>
@@ -1079,7 +1081,7 @@
         <v>13007</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>8007</v>
       </c>
@@ -1096,7 +1098,7 @@
         <v>10743</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>8007</v>
       </c>
@@ -1113,7 +1115,7 @@
         <v>13139</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>8007</v>
       </c>
@@ -1130,7 +1132,7 @@
         <v>8624</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>8007</v>
       </c>
@@ -1147,7 +1149,7 @@
         <v>9202</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>8008</v>
       </c>
@@ -1164,7 +1166,7 @@
         <v>3505</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>8008</v>
       </c>
@@ -1181,7 +1183,7 @@
         <v>3201</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>8008</v>
       </c>
@@ -1198,7 +1200,7 @@
         <v>3913</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>8008</v>
       </c>
@@ -1215,7 +1217,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>8008</v>
       </c>
@@ -1232,7 +1234,7 @@
         <v>2739</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>8010</v>
       </c>
@@ -1249,7 +1251,7 @@
         <v>6440</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>8010</v>
       </c>
@@ -1266,7 +1268,7 @@
         <v>4992</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>8010</v>
       </c>
@@ -1283,7 +1285,7 @@
         <v>7437</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>8010</v>
       </c>
@@ -1300,7 +1302,7 @@
         <v>4546</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>8010</v>
       </c>
@@ -1317,7 +1319,7 @@
         <v>5297</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>8011</v>
       </c>
@@ -1334,7 +1336,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>8011</v>
       </c>
@@ -1351,7 +1353,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>8011</v>
       </c>
@@ -1368,7 +1370,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>8011</v>
       </c>
@@ -1385,7 +1387,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>8011</v>
       </c>
@@ -1402,7 +1404,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>8012</v>
       </c>
@@ -1419,7 +1421,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>8012</v>
       </c>
@@ -1436,7 +1438,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>8012</v>
       </c>
@@ -1453,7 +1455,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>8012</v>
       </c>
@@ -1470,7 +1472,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>8012</v>
       </c>
@@ -1487,7 +1489,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>8013</v>
       </c>
@@ -1504,7 +1506,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>8013</v>
       </c>
@@ -1521,7 +1523,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>8013</v>
       </c>
@@ -1538,7 +1540,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>8013</v>
       </c>
@@ -1555,7 +1557,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>8013</v>
       </c>
@@ -1572,7 +1574,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>8014</v>
       </c>
@@ -1589,7 +1591,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>8014</v>
       </c>
@@ -1606,7 +1608,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>8014</v>
       </c>
@@ -1623,7 +1625,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>8014</v>
       </c>
@@ -1640,7 +1642,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>8014</v>
       </c>
@@ -1657,7 +1659,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>8015</v>
       </c>
@@ -1674,7 +1676,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>8015</v>
       </c>
@@ -1691,7 +1693,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>8015</v>
       </c>
@@ -1708,7 +1710,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>8015</v>
       </c>
@@ -1725,7 +1727,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>8015</v>
       </c>
@@ -1742,7 +1744,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>8016</v>
       </c>
@@ -1759,7 +1761,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>8016</v>
       </c>
@@ -1776,7 +1778,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>8016</v>
       </c>
@@ -1793,7 +1795,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>8016</v>
       </c>
@@ -1810,7 +1812,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>8016</v>
       </c>
@@ -1827,7 +1829,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>8084</v>
       </c>
@@ -1844,7 +1846,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>8084</v>
       </c>
@@ -1861,7 +1863,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>8084</v>
       </c>
@@ -1878,7 +1880,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>8084</v>
       </c>
@@ -1895,7 +1897,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <v>8084</v>
       </c>
@@ -1912,7 +1914,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>8101</v>
       </c>
@@ -1929,7 +1931,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>8101</v>
       </c>
@@ -1946,7 +1948,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>8101</v>
       </c>
@@ -1963,7 +1965,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>8101</v>
       </c>
@@ -1980,7 +1982,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>8101</v>
       </c>
@@ -1997,7 +1999,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <v>8102</v>
       </c>
@@ -2014,7 +2016,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>8102</v>
       </c>
@@ -2031,7 +2033,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
         <v>8102</v>
       </c>
@@ -2048,7 +2050,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
         <v>8102</v>
       </c>
@@ -2065,7 +2067,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
         <v>8102</v>
       </c>
@@ -2082,7 +2084,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
         <v>8103</v>
       </c>
@@ -2099,7 +2101,7 @@
         <v>6340</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
         <v>8103</v>
       </c>
@@ -2116,7 +2118,7 @@
         <v>5799</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <v>8103</v>
       </c>
@@ -2133,7 +2135,7 @@
         <v>7926</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <v>8103</v>
       </c>
@@ -2150,7 +2152,7 @@
         <v>5045</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <v>8103</v>
       </c>
@@ -2167,7 +2169,7 @@
         <v>6099</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
         <v>8104</v>
       </c>
@@ -2184,7 +2186,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
         <v>8104</v>
       </c>
@@ -2201,7 +2203,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <v>8104</v>
       </c>
@@ -2218,7 +2220,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
         <v>8104</v>
       </c>
@@ -2235,7 +2237,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
         <v>8104</v>
       </c>
@@ -2252,7 +2254,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
         <v>8111</v>
       </c>
@@ -2269,7 +2271,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="6">
         <v>8111</v>
       </c>
@@ -2286,7 +2288,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
         <v>8111</v>
       </c>
@@ -2303,7 +2305,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="6">
         <v>8111</v>
       </c>
@@ -2320,7 +2322,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="6">
         <v>8111</v>
       </c>
@@ -2337,7 +2339,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="6">
         <v>8113</v>
       </c>
@@ -2354,7 +2356,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="6">
         <v>8113</v>
       </c>
@@ -2371,7 +2373,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="6">
         <v>8113</v>
       </c>
@@ -2388,7 +2390,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="6">
         <v>8113</v>
       </c>
@@ -2405,7 +2407,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="6">
         <v>8113</v>
       </c>
@@ -2422,7 +2424,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="6">
         <v>8115</v>
       </c>
@@ -2439,7 +2441,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="6">
         <v>8115</v>
       </c>
@@ -2456,7 +2458,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="6">
         <v>8115</v>
       </c>
@@ -2473,7 +2475,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="6">
         <v>8115</v>
       </c>
@@ -2490,7 +2492,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="6">
         <v>8115</v>
       </c>
@@ -2507,7 +2509,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="6">
         <v>8116</v>
       </c>
@@ -2524,7 +2526,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="6">
         <v>8116</v>
       </c>
@@ -2541,7 +2543,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="6">
         <v>8116</v>
       </c>
@@ -2558,7 +2560,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="6">
         <v>8116</v>
       </c>
@@ -2575,7 +2577,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="6">
         <v>8116</v>
       </c>
@@ -2592,7 +2594,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="6">
         <v>8117</v>
       </c>
@@ -2609,7 +2611,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="6">
         <v>8117</v>
       </c>
@@ -2626,7 +2628,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="6">
         <v>8117</v>
       </c>
@@ -2643,7 +2645,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="6">
         <v>8117</v>
       </c>
@@ -2660,7 +2662,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="6">
         <v>8117</v>
       </c>
@@ -2677,7 +2679,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="6">
         <v>8121</v>
       </c>
@@ -2694,7 +2696,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="6">
         <v>8121</v>
       </c>
@@ -2711,7 +2713,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="6">
         <v>8121</v>
       </c>
@@ -2728,7 +2730,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="6">
         <v>8121</v>
       </c>
@@ -2745,7 +2747,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="6">
         <v>8121</v>
       </c>
@@ -2762,7 +2764,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="6">
         <v>8122</v>
       </c>
@@ -2779,7 +2781,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="6">
         <v>8122</v>
       </c>
@@ -2796,7 +2798,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="6">
         <v>8122</v>
       </c>
@@ -2813,7 +2815,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="6">
         <v>8122</v>
       </c>
@@ -2830,7 +2832,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="6">
         <v>8122</v>
       </c>
@@ -2847,7 +2849,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="6">
         <v>8123</v>
       </c>
@@ -2864,7 +2866,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="6">
         <v>8123</v>
       </c>
@@ -2881,7 +2883,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="6">
         <v>8123</v>
       </c>
@@ -2898,7 +2900,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="6">
         <v>8123</v>
       </c>
@@ -2915,7 +2917,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="6">
         <v>8123</v>
       </c>
@@ -2932,7 +2934,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="6">
         <v>8127</v>
       </c>
@@ -2949,7 +2951,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="6">
         <v>8127</v>
       </c>
@@ -2966,7 +2968,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="6">
         <v>8127</v>
       </c>
@@ -2983,7 +2985,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="6">
         <v>8127</v>
       </c>
@@ -3000,7 +3002,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="6">
         <v>8127</v>
       </c>
@@ -3017,7 +3019,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="6">
         <v>8128</v>
       </c>
@@ -3034,7 +3036,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="6">
         <v>8128</v>
       </c>
@@ -3051,7 +3053,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="6">
         <v>8128</v>
       </c>
@@ -3068,7 +3070,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="6">
         <v>8128</v>
       </c>
@@ -3085,7 +3087,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="6">
         <v>8128</v>
       </c>
@@ -3102,7 +3104,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="6">
         <v>8129</v>
       </c>
@@ -3119,7 +3121,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="6">
         <v>8129</v>
       </c>
@@ -3136,7 +3138,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="6">
         <v>8129</v>
       </c>
@@ -3153,7 +3155,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="6">
         <v>8129</v>
       </c>
@@ -3170,7 +3172,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="6">
         <v>8129</v>
       </c>
@@ -3187,7 +3189,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="6">
         <v>8131</v>
       </c>
@@ -3204,7 +3206,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="6">
         <v>8131</v>
       </c>
@@ -3221,7 +3223,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="6">
         <v>8131</v>
       </c>
@@ -3238,7 +3240,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="6">
         <v>8131</v>
       </c>
@@ -3255,7 +3257,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="6">
         <v>8131</v>
       </c>
@@ -3272,7 +3274,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="6">
         <v>8132</v>
       </c>
@@ -3289,7 +3291,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="6">
         <v>8132</v>
       </c>
@@ -3306,7 +3308,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="6">
         <v>8132</v>
       </c>
@@ -3323,7 +3325,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="6">
         <v>8132</v>
       </c>
@@ -3340,7 +3342,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="6">
         <v>8132</v>
       </c>
@@ -3357,7 +3359,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="6">
         <v>8133</v>
       </c>
@@ -3374,7 +3376,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="6">
         <v>8133</v>
       </c>
@@ -3391,7 +3393,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="6">
         <v>8133</v>
       </c>
@@ -3408,7 +3410,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="6">
         <v>8133</v>
       </c>
@@ -3425,7 +3427,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="6">
         <v>8133</v>
       </c>
@@ -3442,7 +3444,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="6">
         <v>8135</v>
       </c>
@@ -3459,7 +3461,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="6">
         <v>8135</v>
       </c>
@@ -3476,7 +3478,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="6">
         <v>8135</v>
       </c>
@@ -3493,7 +3495,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="6">
         <v>8135</v>
       </c>
@@ -3510,7 +3512,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="6">
         <v>8135</v>
       </c>
@@ -3527,7 +3529,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="6">
         <v>8136</v>
       </c>
@@ -3544,7 +3546,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="6">
         <v>8136</v>
       </c>
@@ -3561,7 +3563,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="6">
         <v>8136</v>
       </c>
@@ -3578,7 +3580,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="6">
         <v>8136</v>
       </c>
@@ -3595,7 +3597,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="6">
         <v>8136</v>
       </c>
@@ -3612,7 +3614,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="6">
         <v>8140</v>
       </c>
@@ -3629,7 +3631,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="6">
         <v>8141</v>
       </c>
@@ -3646,7 +3648,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="6">
         <v>8141</v>
       </c>
@@ -3663,7 +3665,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="6">
         <v>8141</v>
       </c>
@@ -3680,7 +3682,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="6">
         <v>8141</v>
       </c>
@@ -3697,7 +3699,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="6">
         <v>8141</v>
       </c>
@@ -3714,7 +3716,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="6">
         <v>8142</v>
       </c>
@@ -3731,7 +3733,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="6">
         <v>8142</v>
       </c>
@@ -3748,7 +3750,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="6">
         <v>8142</v>
       </c>
@@ -3765,7 +3767,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="6">
         <v>8142</v>
       </c>
@@ -3782,7 +3784,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="6">
         <v>8142</v>
       </c>
@@ -3799,7 +3801,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="6">
         <v>8143</v>
       </c>
@@ -3816,7 +3818,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="6">
         <v>8143</v>
       </c>
@@ -3833,7 +3835,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="6">
         <v>8143</v>
       </c>
@@ -3850,7 +3852,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="6">
         <v>8143</v>
       </c>
@@ -3867,7 +3869,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="6">
         <v>8143</v>
       </c>
@@ -3884,7 +3886,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="6">
         <v>8144</v>
       </c>
@@ -3901,7 +3903,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="6">
         <v>8144</v>
       </c>
@@ -3918,7 +3920,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="6">
         <v>8144</v>
       </c>
@@ -3935,7 +3937,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="6">
         <v>8144</v>
       </c>
@@ -3952,7 +3954,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="6">
         <v>8144</v>
       </c>
@@ -3969,7 +3971,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="6">
         <v>8145</v>
       </c>
@@ -3986,7 +3988,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="6">
         <v>8145</v>
       </c>
@@ -4003,7 +4005,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="6">
         <v>8145</v>
       </c>
@@ -4020,7 +4022,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="6">
         <v>8145</v>
       </c>
@@ -4037,7 +4039,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="6">
         <v>8145</v>
       </c>
@@ -4054,7 +4056,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="6">
         <v>8146</v>
       </c>
@@ -4071,7 +4073,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="6">
         <v>8146</v>
       </c>
@@ -4088,7 +4090,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="6">
         <v>8146</v>
       </c>
@@ -4105,7 +4107,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="6">
         <v>8146</v>
       </c>
@@ -4122,7 +4124,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="6">
         <v>8146</v>
       </c>
@@ -4139,7 +4141,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="6">
         <v>8147</v>
       </c>
@@ -4156,7 +4158,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="6">
         <v>8147</v>
       </c>
@@ -4173,7 +4175,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="6">
         <v>8147</v>
       </c>
@@ -4190,7 +4192,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="6">
         <v>8147</v>
       </c>
@@ -4207,7 +4209,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="6">
         <v>8147</v>
       </c>
@@ -4224,7 +4226,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="6">
         <v>8150</v>
       </c>
@@ -4241,7 +4243,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="6">
         <v>8150</v>
       </c>
@@ -4258,7 +4260,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="6">
         <v>8150</v>
       </c>
@@ -4275,7 +4277,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="6">
         <v>8150</v>
       </c>
@@ -4292,7 +4294,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="6">
         <v>8150</v>
       </c>
@@ -4309,7 +4311,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="6">
         <v>8151</v>
       </c>
@@ -4326,7 +4328,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="6">
         <v>8151</v>
       </c>
@@ -4343,7 +4345,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="6">
         <v>8151</v>
       </c>
@@ -4360,7 +4362,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="6">
         <v>8151</v>
       </c>
@@ -4377,7 +4379,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="6">
         <v>8151</v>
       </c>
@@ -4394,7 +4396,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="6">
         <v>8162</v>
       </c>
@@ -4411,7 +4413,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="6">
         <v>8162</v>
       </c>
@@ -4428,7 +4430,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="6">
         <v>8162</v>
       </c>
@@ -4445,7 +4447,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="6">
         <v>8162</v>
       </c>
@@ -4462,7 +4464,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="6">
         <v>8162</v>
       </c>
@@ -4479,7 +4481,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="6">
         <v>8163</v>
       </c>
@@ -4496,7 +4498,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="6">
         <v>8163</v>
       </c>
@@ -4513,7 +4515,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="6">
         <v>8163</v>
       </c>
@@ -4530,7 +4532,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="6">
         <v>8163</v>
       </c>
@@ -4547,7 +4549,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="6">
         <v>8163</v>
       </c>
@@ -4564,7 +4566,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="6">
         <v>8182</v>
       </c>
@@ -4581,7 +4583,7 @@
         <v>18375</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="6">
         <v>8182</v>
       </c>
@@ -4598,7 +4600,7 @@
         <v>16338</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="6">
         <v>8182</v>
       </c>
@@ -4615,7 +4617,7 @@
         <v>21039</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="6">
         <v>8182</v>
       </c>
@@ -4632,7 +4634,7 @@
         <v>15470</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="6">
         <v>8182</v>
       </c>
@@ -4649,7 +4651,7 @@
         <v>17573</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="6">
         <v>8185</v>
       </c>
@@ -4666,7 +4668,7 @@
         <v>4891</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="6">
         <v>8185</v>
       </c>
@@ -4683,7 +4685,7 @@
         <v>4401</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="6">
         <v>8185</v>
       </c>
@@ -4700,7 +4702,7 @@
         <v>5631</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="6">
         <v>8185</v>
       </c>
@@ -4717,7 +4719,7 @@
         <v>4935</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="6">
         <v>8185</v>
       </c>
@@ -4734,7 +4736,7 @@
         <v>4647</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="6">
         <v>8200</v>
       </c>
@@ -4751,7 +4753,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="6">
         <v>8200</v>
       </c>
@@ -4768,7 +4770,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="6">
         <v>8200</v>
       </c>
@@ -4785,7 +4787,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="6">
         <v>8209</v>
       </c>
@@ -4802,7 +4804,7 @@
         <v>9793</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="6">
         <v>8209</v>
       </c>
@@ -4819,7 +4821,7 @@
         <v>7261</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="6">
         <v>8209</v>
       </c>
@@ -4836,7 +4838,7 @@
         <v>11471</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="6">
         <v>8209</v>
       </c>
@@ -4853,7 +4855,7 @@
         <v>7059</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="6">
         <v>8209</v>
       </c>
@@ -4870,7 +4872,7 @@
         <v>8399</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="6">
         <v>8281</v>
       </c>
@@ -4887,7 +4889,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="6">
         <v>8281</v>
       </c>
@@ -4904,7 +4906,7 @@
         <v>4806</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="6">
         <v>8281</v>
       </c>
@@ -4921,7 +4923,7 @@
         <v>6086</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="6">
         <v>8281</v>
       </c>
@@ -4938,7 +4940,7 @@
         <v>6627</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="6">
         <v>8281</v>
       </c>
@@ -4955,7 +4957,7 @@
         <v>6140</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="6">
         <v>8301</v>
       </c>
@@ -4972,7 +4974,7 @@
         <v>4396</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="6">
         <v>8301</v>
       </c>
@@ -4989,7 +4991,7 @@
         <v>3175</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="6">
         <v>8301</v>
       </c>
@@ -5006,7 +5008,7 @@
         <v>4715</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="6">
         <v>8301</v>
       </c>
@@ -5023,7 +5025,7 @@
         <v>2890</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="6">
         <v>8301</v>
       </c>
@@ -5040,7 +5042,7 @@
         <v>3385</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="6">
         <v>8305</v>
       </c>
@@ -5057,7 +5059,7 @@
         <v>2790</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="6">
         <v>8305</v>
       </c>
@@ -5074,7 +5076,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="6">
         <v>8305</v>
       </c>
@@ -5091,7 +5093,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="6">
         <v>8305</v>
       </c>
@@ -5108,7 +5110,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="6">
         <v>8305</v>
       </c>
@@ -5125,7 +5127,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="6">
         <v>8312</v>
       </c>
@@ -5142,7 +5144,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="6">
         <v>8312</v>
       </c>
@@ -5159,7 +5161,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="6">
         <v>8312</v>
       </c>
@@ -5176,7 +5178,7 @@
         <v>3101</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="6">
         <v>8312</v>
       </c>
@@ -5193,7 +5195,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="6">
         <v>8312</v>
       </c>
@@ -5210,7 +5212,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="6">
         <v>8313</v>
       </c>
@@ -5227,7 +5229,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="6">
         <v>8313</v>
       </c>
@@ -5244,7 +5246,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="6">
         <v>8313</v>
       </c>
@@ -5261,7 +5263,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="6">
         <v>8313</v>
       </c>
@@ -5278,7 +5280,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="6">
         <v>8313</v>
       </c>
@@ -5295,7 +5297,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="6">
         <v>8320</v>
       </c>
@@ -5312,7 +5314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="6">
         <v>8320</v>
       </c>
@@ -5329,7 +5331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="6">
         <v>8320</v>
       </c>
@@ -5346,7 +5348,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="6">
         <v>8320</v>
       </c>
@@ -5363,7 +5365,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="6">
         <v>8320</v>
       </c>
@@ -5380,7 +5382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="6">
         <v>8321</v>
       </c>
@@ -5397,7 +5399,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="6">
         <v>8321</v>
       </c>
@@ -5414,7 +5416,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="6">
         <v>8321</v>
       </c>
@@ -5431,7 +5433,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="6">
         <v>8321</v>
       </c>
@@ -5448,7 +5450,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="6">
         <v>8321</v>
       </c>
@@ -5465,7 +5467,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="6">
         <v>8322</v>
       </c>
@@ -5482,7 +5484,7 @@
         <v>10972</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="6">
         <v>8322</v>
       </c>
@@ -5499,7 +5501,7 @@
         <v>7563</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="6">
         <v>8322</v>
       </c>
@@ -5516,7 +5518,7 @@
         <v>11594</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="6">
         <v>8322</v>
       </c>
@@ -5533,7 +5535,7 @@
         <v>6537</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="6">
         <v>8322</v>
       </c>
@@ -5550,7 +5552,7 @@
         <v>7926</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="6">
         <v>8323</v>
       </c>
@@ -5567,7 +5569,7 @@
         <v>7570</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="6">
         <v>8323</v>
       </c>
@@ -5584,7 +5586,7 @@
         <v>6226</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="6">
         <v>8323</v>
       </c>
@@ -5601,7 +5603,7 @@
         <v>8304</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="6">
         <v>8323</v>
       </c>
@@ -5618,7 +5620,7 @@
         <v>5675</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="6">
         <v>8323</v>
       </c>
@@ -5635,7 +5637,7 @@
         <v>6852</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="6">
         <v>8459</v>
       </c>
@@ -5652,7 +5654,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="6">
         <v>8459</v>
       </c>
@@ -5669,7 +5671,7 @@
         <v>4053</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="6">
         <v>8459</v>
       </c>
@@ -5686,7 +5688,7 @@
         <v>5041</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="6">
         <v>8459</v>
       </c>
@@ -5703,7 +5705,7 @@
         <v>3205</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="6">
         <v>8459</v>
       </c>
@@ -5720,7 +5722,7 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="6">
         <v>8460</v>
       </c>
@@ -5737,7 +5739,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="6">
         <v>8460</v>
       </c>
@@ -5754,7 +5756,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="6">
         <v>8460</v>
       </c>
@@ -5771,7 +5773,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="6">
         <v>8460</v>
       </c>
@@ -5788,7 +5790,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="6">
         <v>8460</v>
       </c>
@@ -5805,7 +5807,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="6">
         <v>8461</v>
       </c>
@@ -5822,7 +5824,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="6">
         <v>8461</v>
       </c>
@@ -5839,7 +5841,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="6">
         <v>8461</v>
       </c>
@@ -5856,7 +5858,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="6">
         <v>8461</v>
       </c>
@@ -5873,7 +5875,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="6">
         <v>8461</v>
       </c>
@@ -5890,7 +5892,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="6">
         <v>8462</v>
       </c>
@@ -5907,7 +5909,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="6">
         <v>8462</v>
       </c>
@@ -5924,7 +5926,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="6">
         <v>8462</v>
       </c>
@@ -5941,7 +5943,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="6">
         <v>8462</v>
       </c>
@@ -5958,7 +5960,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="6">
         <v>8462</v>
       </c>
@@ -5975,7 +5977,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="6">
         <v>8463</v>
       </c>
@@ -5992,7 +5994,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="6">
         <v>8463</v>
       </c>
@@ -6009,7 +6011,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="6">
         <v>8463</v>
       </c>
@@ -6026,7 +6028,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="6">
         <v>8463</v>
       </c>
@@ -6043,7 +6045,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="6">
         <v>8463</v>
       </c>
@@ -6060,7 +6062,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="6">
         <v>8501</v>
       </c>
@@ -6077,7 +6079,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="6">
         <v>8501</v>
       </c>
@@ -6094,7 +6096,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="6">
         <v>8501</v>
       </c>
@@ -6111,7 +6113,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="6">
         <v>8501</v>
       </c>
@@ -6128,7 +6130,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="6">
         <v>8501</v>
       </c>
@@ -6145,7 +6147,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="6">
         <v>8502</v>
       </c>
@@ -6162,7 +6164,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="6">
         <v>8502</v>
       </c>
@@ -6179,7 +6181,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="6">
         <v>8502</v>
       </c>
@@ -6196,7 +6198,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="6">
         <v>8502</v>
       </c>
@@ -6213,7 +6215,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="6">
         <v>8502</v>
       </c>
@@ -6230,7 +6232,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="6">
         <v>8504</v>
       </c>
@@ -6247,7 +6249,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="6">
         <v>8504</v>
       </c>
@@ -6264,7 +6266,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="6">
         <v>8504</v>
       </c>
@@ -6281,7 +6283,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="6">
         <v>8504</v>
       </c>
@@ -6298,7 +6300,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="6">
         <v>8504</v>
       </c>
@@ -6315,7 +6317,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="6">
         <v>8506</v>
       </c>
@@ -6332,7 +6334,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="6">
         <v>8506</v>
       </c>
@@ -6349,7 +6351,7 @@
         <v>3498</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="6">
         <v>8506</v>
       </c>
@@ -6366,7 +6368,7 @@
         <v>4051</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="6">
         <v>8506</v>
       </c>
@@ -6383,7 +6385,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="6">
         <v>8506</v>
       </c>
@@ -6400,7 +6402,7 @@
         <v>2939</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="6">
         <v>8507</v>
       </c>
@@ -6417,7 +6419,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="6">
         <v>8507</v>
       </c>
@@ -6434,7 +6436,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="6">
         <v>8507</v>
       </c>
@@ -6451,7 +6453,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="6">
         <v>8507</v>
       </c>
@@ -6468,7 +6470,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="6">
         <v>8507</v>
       </c>
@@ -6485,7 +6487,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="6">
         <v>8601</v>
       </c>
@@ -6502,7 +6504,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="6">
         <v>8601</v>
       </c>
@@ -6519,7 +6521,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="6">
         <v>8601</v>
       </c>
@@ -6536,7 +6538,7 @@
         <v>2844</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="6">
         <v>8601</v>
       </c>
@@ -6553,7 +6555,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="6">
         <v>8601</v>
       </c>
@@ -6570,7 +6572,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="6">
         <v>8602</v>
       </c>
@@ -6587,7 +6589,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="6">
         <v>8602</v>
       </c>
@@ -6604,7 +6606,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="6">
         <v>8602</v>
       </c>
@@ -6621,7 +6623,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="6">
         <v>8602</v>
       </c>
@@ -6638,7 +6640,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="6">
         <v>8602</v>
       </c>
@@ -6655,7 +6657,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="6">
         <v>8603</v>
       </c>
@@ -6672,7 +6674,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="6">
         <v>8603</v>
       </c>
@@ -6689,7 +6691,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="6">
         <v>8603</v>
       </c>
@@ -6706,7 +6708,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="6">
         <v>8603</v>
       </c>
@@ -6723,7 +6725,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="6">
         <v>8603</v>
       </c>
@@ -6740,7 +6742,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="6">
         <v>8604</v>
       </c>
@@ -6757,7 +6759,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="6">
         <v>8604</v>
       </c>
@@ -6774,7 +6776,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="6">
         <v>8604</v>
       </c>
@@ -6791,7 +6793,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="6">
         <v>8604</v>
       </c>
@@ -6808,7 +6810,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="6">
         <v>8604</v>
       </c>
@@ -6825,7 +6827,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="6">
         <v>8605</v>
       </c>
@@ -6842,7 +6844,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="6">
         <v>8605</v>
       </c>
@@ -6859,7 +6861,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="6">
         <v>8605</v>
       </c>
@@ -6876,7 +6878,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="6">
         <v>8605</v>
       </c>
@@ -6893,7 +6895,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" s="6">
         <v>8605</v>
       </c>
@@ -6910,7 +6912,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" s="6">
         <v>8606</v>
       </c>
@@ -6927,7 +6929,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" s="6">
         <v>8606</v>
       </c>
@@ -6944,7 +6946,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" s="6">
         <v>8606</v>
       </c>
@@ -6961,7 +6963,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="6">
         <v>8606</v>
       </c>
@@ -6978,7 +6980,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" s="6">
         <v>8606</v>
       </c>
@@ -6995,7 +6997,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" s="6">
         <v>8607</v>
       </c>
@@ -7012,7 +7014,7 @@
         <v>3895</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="6">
         <v>8607</v>
       </c>
@@ -7029,7 +7031,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" s="6">
         <v>8607</v>
       </c>
@@ -7046,7 +7048,7 @@
         <v>4206</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" s="6">
         <v>8607</v>
       </c>
@@ -7063,7 +7065,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" s="6">
         <v>8607</v>
       </c>
@@ -7080,7 +7082,7 @@
         <v>3206</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" s="6">
         <v>8609</v>
       </c>
@@ -7097,7 +7099,7 @@
         <v>4885</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" s="6">
         <v>8609</v>
       </c>
@@ -7114,7 +7116,7 @@
         <v>4163</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" s="6">
         <v>8609</v>
       </c>
@@ -7131,7 +7133,7 @@
         <v>5390</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" s="6">
         <v>8609</v>
       </c>
@@ -7148,7 +7150,7 @@
         <v>3866</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" s="6">
         <v>8609</v>
       </c>
@@ -7165,7 +7167,7 @@
         <v>4674</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" s="6">
         <v>8610</v>
       </c>
@@ -7182,7 +7184,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" s="6">
         <v>8610</v>
       </c>
@@ -7199,7 +7201,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" s="6">
         <v>8610</v>
       </c>
@@ -7216,7 +7218,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" s="6">
         <v>8610</v>
       </c>
@@ -7233,7 +7235,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" s="6">
         <v>8610</v>
       </c>
@@ -7250,7 +7252,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" s="6">
         <v>8701</v>
       </c>
@@ -7267,7 +7269,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" s="6">
         <v>8701</v>
       </c>
@@ -7284,7 +7286,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" s="6">
         <v>8701</v>
       </c>
@@ -7301,7 +7303,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" s="6">
         <v>8701</v>
       </c>
@@ -7318,7 +7320,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" s="6">
         <v>8701</v>
       </c>
@@ -7335,7 +7337,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" s="6">
         <v>8702</v>
       </c>
@@ -7352,7 +7354,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" s="6">
         <v>8702</v>
       </c>
@@ -7369,7 +7371,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" s="6">
         <v>8702</v>
       </c>
@@ -7386,7 +7388,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" s="6">
         <v>8702</v>
       </c>
@@ -7403,7 +7405,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" s="6">
         <v>8702</v>
       </c>
@@ -7420,7 +7422,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" s="6">
         <v>8710</v>
       </c>
@@ -7437,7 +7439,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" s="6">
         <v>8710</v>
       </c>
@@ -7454,7 +7456,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" s="6">
         <v>8710</v>
       </c>
@@ -7471,7 +7473,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" s="6">
         <v>8710</v>
       </c>
@@ -7488,7 +7490,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" s="6">
         <v>8710</v>
       </c>
@@ -7505,7 +7507,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" s="6">
         <v>8711</v>
       </c>
@@ -7522,7 +7524,7 @@
         <v>3067</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" s="6">
         <v>8711</v>
       </c>
@@ -7539,7 +7541,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" s="6">
         <v>8711</v>
       </c>
@@ -7556,7 +7558,7 @@
         <v>3316</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" s="6">
         <v>8711</v>
       </c>
@@ -7573,7 +7575,7 @@
         <v>4103</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" s="6">
         <v>8711</v>
       </c>
@@ -7590,7 +7592,7 @@
         <v>5222</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" s="6">
         <v>8712</v>
       </c>
@@ -7607,7 +7609,7 @@
         <v>5735</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" s="6">
         <v>8712</v>
       </c>
@@ -7624,7 +7626,7 @@
         <v>5911</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" s="6">
         <v>8712</v>
       </c>
@@ -7641,7 +7643,7 @@
         <v>6957</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" s="6">
         <v>8712</v>
       </c>
@@ -7658,7 +7660,7 @@
         <v>14209</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" s="6">
         <v>8712</v>
       </c>
@@ -7675,7 +7677,7 @@
         <v>16491</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" s="6">
         <v>8801</v>
       </c>
@@ -7692,7 +7694,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" s="6">
         <v>8801</v>
       </c>
@@ -7709,7 +7711,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" s="6">
         <v>8801</v>
       </c>
@@ -7726,7 +7728,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" s="6">
         <v>8801</v>
       </c>
@@ -7743,7 +7745,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" s="6">
         <v>8801</v>
       </c>
@@ -7760,7 +7762,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" s="6">
         <v>8802</v>
       </c>
@@ -7777,7 +7779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" s="6">
         <v>8802</v>
       </c>
@@ -7794,7 +7796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" s="6">
         <v>8802</v>
       </c>
@@ -7811,7 +7813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" s="6">
         <v>8802</v>
       </c>
@@ -7828,7 +7830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" s="6">
         <v>8802</v>
       </c>
@@ -7845,7 +7847,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" s="6">
         <v>8803</v>
       </c>
@@ -7862,7 +7864,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" s="6">
         <v>8803</v>
       </c>
@@ -7879,7 +7881,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" s="6">
         <v>8803</v>
       </c>
@@ -7896,7 +7898,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" s="6">
         <v>8803</v>
       </c>
@@ -7913,7 +7915,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" s="6">
         <v>8803</v>
       </c>
@@ -7930,7 +7932,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" s="6">
         <v>8804</v>
       </c>
@@ -7947,7 +7949,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" s="6">
         <v>8804</v>
       </c>
@@ -7964,7 +7966,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" s="6">
         <v>8804</v>
       </c>
@@ -7981,7 +7983,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" s="6">
         <v>8804</v>
       </c>
@@ -7998,7 +8000,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440" s="6">
         <v>8804</v>
       </c>
@@ -8015,7 +8017,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" s="6">
         <v>8805</v>
       </c>
@@ -8032,7 +8034,7 @@
         <v>3131</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" s="6">
         <v>8805</v>
       </c>
@@ -8049,7 +8051,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443" s="6">
         <v>8805</v>
       </c>
@@ -8066,7 +8068,7 @@
         <v>3257</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" s="6">
         <v>8805</v>
       </c>
@@ -8083,7 +8085,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445" s="6">
         <v>8805</v>
       </c>
@@ -8100,7 +8102,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446" s="6">
         <v>8806</v>
       </c>
@@ -8117,7 +8119,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447" s="6">
         <v>8806</v>
       </c>
@@ -8134,7 +8136,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448" s="6">
         <v>8806</v>
       </c>
@@ -8151,7 +8153,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449" s="6">
         <v>8806</v>
       </c>
@@ -8168,7 +8170,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450" s="6">
         <v>8806</v>
       </c>
@@ -8185,7 +8187,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451" s="6">
         <v>8807</v>
       </c>
@@ -8202,7 +8204,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452" s="6">
         <v>8807</v>
       </c>
@@ -8219,7 +8221,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" s="6">
         <v>8807</v>
       </c>
@@ -8236,7 +8238,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" s="6">
         <v>8807</v>
       </c>
@@ -8253,7 +8255,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455" s="6">
         <v>8807</v>
       </c>
@@ -8270,7 +8272,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456" s="6">
         <v>8808</v>
       </c>
@@ -8287,7 +8289,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457" s="6">
         <v>8808</v>
       </c>
@@ -8304,7 +8306,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458" s="6">
         <v>8808</v>
       </c>
@@ -8321,7 +8323,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459" s="6">
         <v>8808</v>
       </c>
@@ -8338,7 +8340,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460" s="6">
         <v>8808</v>
       </c>
@@ -8355,7 +8357,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461" s="6">
         <v>8810</v>
       </c>
@@ -8372,7 +8374,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462" s="6">
         <v>8810</v>
       </c>
@@ -8389,7 +8391,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463" s="6">
         <v>8810</v>
       </c>
@@ -8406,7 +8408,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464" s="6">
         <v>8810</v>
       </c>
@@ -8423,7 +8425,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465" s="6">
         <v>8810</v>
       </c>
@@ -8440,7 +8442,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466" s="6">
         <v>8811</v>
       </c>
@@ -8457,7 +8459,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" s="6">
         <v>8811</v>
       </c>
@@ -8474,7 +8476,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" s="6">
         <v>8811</v>
       </c>
@@ -8491,7 +8493,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469" s="6">
         <v>8811</v>
       </c>
@@ -8508,7 +8510,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A470" s="6">
         <v>8811</v>
       </c>
@@ -8525,7 +8527,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A471" s="6">
         <v>8812</v>
       </c>
@@ -8542,7 +8544,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A472" s="6">
         <v>8812</v>
       </c>
@@ -8559,7 +8561,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473" s="6">
         <v>8812</v>
       </c>
@@ -8576,7 +8578,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474" s="6">
         <v>8812</v>
       </c>
@@ -8593,7 +8595,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475" s="6">
         <v>8812</v>
       </c>
@@ -8610,7 +8612,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476" s="6">
         <v>8814</v>
       </c>
@@ -8627,7 +8629,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477" s="6">
         <v>8814</v>
       </c>
@@ -8644,7 +8646,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478" s="6">
         <v>8814</v>
       </c>
@@ -8661,7 +8663,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479" s="6">
         <v>8814</v>
       </c>
@@ -8678,7 +8680,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480" s="6">
         <v>8814</v>
       </c>
@@ -8695,7 +8697,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481" s="6">
         <v>8815</v>
       </c>
@@ -8712,7 +8714,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482" s="6">
         <v>8815</v>
       </c>
@@ -8729,7 +8731,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483" s="6">
         <v>8815</v>
       </c>
@@ -8746,7 +8748,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484" s="6">
         <v>8815</v>
       </c>
@@ -8763,7 +8765,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A485" s="6">
         <v>8815</v>
       </c>
@@ -8780,7 +8782,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A486" s="6">
         <v>8816</v>
       </c>
@@ -8797,7 +8799,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A487" s="6">
         <v>8816</v>
       </c>
@@ -8814,7 +8816,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A488" s="6">
         <v>8816</v>
       </c>
@@ -8831,7 +8833,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A489" s="6">
         <v>8816</v>
       </c>
@@ -8848,7 +8850,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A490" s="6">
         <v>8816</v>
       </c>
@@ -8865,7 +8867,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A491" s="6">
         <v>8817</v>
       </c>
@@ -8882,7 +8884,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A492" s="6">
         <v>8817</v>
       </c>
@@ -8899,7 +8901,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A493" s="6">
         <v>8817</v>
       </c>
@@ -8916,7 +8918,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A494" s="6">
         <v>8817</v>
       </c>
@@ -8933,7 +8935,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A495" s="6">
         <v>8817</v>
       </c>
@@ -8950,7 +8952,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A496" s="6">
         <v>8818</v>
       </c>
@@ -8967,7 +8969,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A497" s="6">
         <v>8818</v>
       </c>
@@ -8984,7 +8986,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A498" s="6">
         <v>8818</v>
       </c>
@@ -9001,7 +9003,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A499" s="6">
         <v>8818</v>
       </c>
@@ -9018,7 +9020,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A500" s="6">
         <v>8818</v>
       </c>
@@ -9035,7 +9037,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A501" s="6">
         <v>8819</v>
       </c>
@@ -9052,7 +9054,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A502" s="6">
         <v>8819</v>
       </c>
@@ -9069,7 +9071,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A503" s="6">
         <v>8819</v>
       </c>
@@ -9086,7 +9088,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A504" s="6">
         <v>8819</v>
       </c>
@@ -9103,7 +9105,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A505" s="6">
         <v>8819</v>
       </c>
@@ -9120,7 +9122,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A506" s="6">
         <v>8820</v>
       </c>
@@ -9137,7 +9139,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A507" s="6">
         <v>8820</v>
       </c>
@@ -9154,7 +9156,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A508" s="6">
         <v>8820</v>
       </c>
@@ -9171,7 +9173,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A509" s="6">
         <v>8820</v>
       </c>
@@ -9188,7 +9190,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A510" s="6">
         <v>8820</v>
       </c>
@@ -9205,7 +9207,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A511" s="6">
         <v>8822</v>
       </c>
@@ -9222,7 +9224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A512" s="6">
         <v>8822</v>
       </c>
@@ -9239,7 +9241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A513" s="6">
         <v>8822</v>
       </c>
@@ -9256,7 +9258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A514" s="6">
         <v>8881</v>
       </c>
@@ -9273,7 +9275,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A515" s="6">
         <v>8881</v>
       </c>
@@ -9290,7 +9292,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A516" s="6">
         <v>8881</v>
       </c>
@@ -9307,7 +9309,7 @@
         <v>3005</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A517" s="6">
         <v>8881</v>
       </c>
@@ -9324,7 +9326,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A518" s="6">
         <v>8881</v>
       </c>
@@ -9341,7 +9343,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A519" s="6">
         <v>8882</v>
       </c>
@@ -9358,7 +9360,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A520" s="6">
         <v>8882</v>
       </c>
@@ -9375,7 +9377,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A521" s="6">
         <v>8882</v>
       </c>
@@ -9392,7 +9394,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A522" s="6">
         <v>8882</v>
       </c>
@@ -9409,7 +9411,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A523" s="6">
         <v>8882</v>
       </c>
@@ -9426,7 +9428,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A524" s="6">
         <v>8885</v>
       </c>
@@ -9443,7 +9445,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A525" s="6">
         <v>8885</v>
       </c>
@@ -9460,7 +9462,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A526" s="6">
         <v>8885</v>
       </c>
@@ -9477,7 +9479,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A527" s="6">
         <v>8885</v>
       </c>
@@ -9494,7 +9496,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A528" s="6">
         <v>8885</v>
       </c>
@@ -9511,7 +9513,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A529" s="6">
         <v>8887</v>
       </c>
@@ -9528,7 +9530,7 @@
         <v>4533</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A530" s="6">
         <v>8887</v>
       </c>
@@ -9545,7 +9547,7 @@
         <v>3314</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A531" s="6">
         <v>8887</v>
       </c>
@@ -9562,7 +9564,7 @@
         <v>4944</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A532" s="6">
         <v>8887</v>
       </c>
@@ -9579,7 +9581,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A533" s="6">
         <v>8887</v>
       </c>
@@ -9596,7 +9598,7 @@
         <v>2890</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A534" s="6">
         <v>8888</v>
       </c>
@@ -9613,7 +9615,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A535" s="6">
         <v>8888</v>
       </c>
@@ -9630,7 +9632,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A536" s="6">
         <v>8888</v>
       </c>
@@ -9647,7 +9649,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A537" s="6">
         <v>8888</v>
       </c>
@@ -9664,7 +9666,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A538" s="6">
         <v>8888</v>
       </c>
@@ -9681,7 +9683,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A539" s="6">
         <v>8890</v>
       </c>
@@ -9698,7 +9700,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A540" s="6">
         <v>8890</v>
       </c>
@@ -9715,7 +9717,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A541" s="6">
         <v>8890</v>
       </c>
@@ -9732,7 +9734,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A542" s="6">
         <v>8890</v>
       </c>
@@ -9749,7 +9751,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A543" s="6">
         <v>8890</v>
       </c>
@@ -9766,7 +9768,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A544" s="6">
         <v>8892</v>
       </c>
@@ -9783,7 +9785,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A545" s="6">
         <v>8892</v>
       </c>
@@ -9800,7 +9802,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A546" s="6">
         <v>8892</v>
       </c>
@@ -9817,7 +9819,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A547" s="6">
         <v>8892</v>
       </c>
@@ -9834,7 +9836,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A548" s="6">
         <v>8892</v>
       </c>
@@ -9851,7 +9853,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A549" s="6">
         <v>8893</v>
       </c>
@@ -9868,7 +9870,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A550" s="6">
         <v>8893</v>
       </c>
@@ -9885,7 +9887,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A551" s="6">
         <v>8893</v>
       </c>
@@ -9902,7 +9904,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A552" s="6">
         <v>8893</v>
       </c>
@@ -9919,7 +9921,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A553" s="6">
         <v>8893</v>
       </c>
@@ -9936,7 +9938,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A554" s="6">
         <v>8894</v>
       </c>
@@ -9953,7 +9955,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A555" s="6">
         <v>8894</v>
       </c>
@@ -9970,7 +9972,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A556" s="6">
         <v>8894</v>
       </c>
@@ -9987,7 +9989,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A557" s="6">
         <v>8894</v>
       </c>
@@ -10004,7 +10006,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A558" s="6">
         <v>8894</v>
       </c>
@@ -10021,7 +10023,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A559" s="6">
         <v>8895</v>
       </c>
@@ -10038,7 +10040,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A560" s="6">
         <v>8895</v>
       </c>
@@ -10055,7 +10057,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A561" s="6">
         <v>8895</v>
       </c>
@@ -10072,7 +10074,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A562" s="6">
         <v>8895</v>
       </c>
@@ -10089,7 +10091,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A563" s="6">
         <v>8895</v>
       </c>
@@ -10106,7 +10108,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A564" s="6">
         <v>8896</v>
       </c>
@@ -10123,7 +10125,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A565" s="6">
         <v>8896</v>
       </c>
@@ -10140,7 +10142,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A566" s="6">
         <v>8896</v>
       </c>
@@ -10157,7 +10159,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A567" s="6">
         <v>8896</v>
       </c>
@@ -10174,7 +10176,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A568" s="6">
         <v>8896</v>
       </c>
@@ -10191,7 +10193,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A569" s="6">
         <v>8897</v>
       </c>
@@ -10208,7 +10210,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A570" s="6">
         <v>8897</v>
       </c>
@@ -10225,7 +10227,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A571" s="6">
         <v>8897</v>
       </c>
@@ -10242,7 +10244,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A572" s="6">
         <v>8897</v>
       </c>
@@ -10259,7 +10261,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A573" s="6">
         <v>8897</v>
       </c>
@@ -10276,7 +10278,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A574" s="6">
         <v>8898</v>
       </c>
@@ -10293,7 +10295,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A575" s="6">
         <v>8898</v>
       </c>
@@ -10310,7 +10312,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A576" s="6">
         <v>8898</v>
       </c>
@@ -10327,7 +10329,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A577" s="6">
         <v>8898</v>
       </c>
@@ -10344,7 +10346,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A578" s="6">
         <v>8898</v>
       </c>
@@ -10361,7 +10363,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A579" s="6">
         <v>8899</v>
       </c>
@@ -10378,7 +10380,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A580" s="6">
         <v>8899</v>
       </c>
@@ -10395,7 +10397,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A581" s="6">
         <v>8899</v>
       </c>
@@ -10412,7 +10414,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A582" s="6">
         <v>8899</v>
       </c>
@@ -10429,7 +10431,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A583" s="6">
         <v>8899</v>
       </c>
@@ -10446,7 +10448,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A584" s="6">
         <v>8901</v>
       </c>
@@ -10463,7 +10465,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A585" s="6">
         <v>8901</v>
       </c>
@@ -10480,7 +10482,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A586" s="6">
         <v>8901</v>
       </c>
@@ -10497,7 +10499,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A587" s="6">
         <v>8901</v>
       </c>
@@ -10514,7 +10516,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A588" s="6">
         <v>8901</v>
       </c>
@@ -10531,7 +10533,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A589" s="6">
         <v>8902</v>
       </c>
@@ -10548,7 +10550,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A590" s="6">
         <v>8902</v>
       </c>
@@ -10565,7 +10567,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A591" s="6">
         <v>8902</v>
       </c>
@@ -10582,7 +10584,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A592" s="6">
         <v>8902</v>
       </c>
@@ -10599,7 +10601,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A593" s="6">
         <v>8902</v>
       </c>
@@ -10616,7 +10618,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A594" s="6">
         <v>8903</v>
       </c>
@@ -10633,7 +10635,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A595" s="6">
         <v>8903</v>
       </c>
@@ -10650,7 +10652,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A596" s="6">
         <v>8903</v>
       </c>
@@ -10667,7 +10669,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A597" s="6">
         <v>8903</v>
       </c>
@@ -10684,7 +10686,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A598" s="6">
         <v>8903</v>
       </c>
@@ -10701,7 +10703,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A599" s="11" t="s">
         <v>10</v>
       </c>
@@ -10724,6 +10726,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101001898DE31E6781040974FAF2B6226B070" ma:contentTypeVersion="16" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="a7c44ff76577bc4f25f19cca4255138f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="de218069-9b18-4834-8a42-87538bc414b8" xmlns:ns3="346015c6-8778-4c47-bc51-98fcc3d8f0cc" xmlns:ns4="478e6b58-aec7-4dc3-9f41-cb49fd51aa76" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ca1f1bffadeb320ffeb9037f02edf329" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="de218069-9b18-4834-8a42-87538bc414b8"/>
@@ -10971,15 +10982,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -10992,13 +10994,40 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D5D1326-1D97-45D1-B2AD-E5203688A945}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E600336B-6AA6-4F65-B427-A204A8277D2C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E600336B-6AA6-4F65-B427-A204A8277D2C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D5D1326-1D97-45D1-B2AD-E5203688A945}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="de218069-9b18-4834-8a42-87538bc414b8"/>
+    <ds:schemaRef ds:uri="346015c6-8778-4c47-bc51-98fcc3d8f0cc"/>
+    <ds:schemaRef ds:uri="478e6b58-aec7-4dc3-9f41-cb49fd51aa76"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FD9B172-A8DB-427F-9A6A-2AAEA479AA11}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FD9B172-A8DB-427F-9A6A-2AAEA479AA11}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="de218069-9b18-4834-8a42-87538bc414b8"/>
+    <ds:schemaRef ds:uri="478e6b58-aec7-4dc3-9f41-cb49fd51aa76"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>